--- a/附件/result1.xlsx
+++ b/附件/result1.xlsx
@@ -454,16 +454,16 @@
         <v>1800</v>
       </c>
       <c r="G2" t="str">
-        <v>17800</v>
+        <v>17531.0364128552</v>
       </c>
       <c r="H2" t="str">
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <v>1800</v>
+        <v>1763.1535126199</v>
       </c>
       <c r="J2" t="str">
-        <v>12.503928</v>
+        <v>6.699917</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>17363.59214</v>
+        <v>17570.9526583339</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -480,13 +480,16 @@
         <v>1800</v>
       </c>
       <c r="G3" t="str">
-        <v>16763.5576</v>
+        <v>17215.4832312493</v>
       </c>
       <c r="H3" t="str">
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <v>1708.1526915324</v>
+        <v>1735.6403573200</v>
+      </c>
+      <c r="J3" t="str">
+        <v>6.699917</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <v>17006.84316</v>
+        <v>17190.891394325</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -503,13 +506,16 @@
         <v>1800</v>
       </c>
       <c r="G4" t="str">
-        <v>16277.43812</v>
+        <v>16707.0321781847</v>
       </c>
       <c r="H4" t="str">
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <v>1664.2776243935</v>
+        <v>1611.0275095764</v>
+      </c>
+      <c r="J4" t="str">
+        <v>6.699917</v>
       </c>
     </row>
     <row r="6">
